--- a/public/file_nilai/1572057660nilai_kelas4_import.xlsx
+++ b/public/file_nilai/1572057660nilai_kelas4_import.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alirena\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\pbpm\public\file_nilai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931CD258-C2A4-4B10-8BA2-20E7F9DD931B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36CC752-D85E-4446-9CF3-3185FC99A712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13587" yWindow="0" windowWidth="13887" windowHeight="14799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,46 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="171">
-  <si>
-    <t>Apriana Patrisia</t>
-  </si>
-  <si>
-    <t>Febiela Kasipka</t>
-  </si>
-  <si>
-    <t>Frisky Rirung</t>
-  </si>
-  <si>
-    <t>Gabriela Maria Sumolang</t>
-  </si>
-  <si>
-    <t>Gomerio Kogoya</t>
-  </si>
-  <si>
-    <t>Harun Agapa</t>
-  </si>
-  <si>
-    <t>Kevin Fringkeuw</t>
-  </si>
-  <si>
-    <t>Listra Lipyi</t>
-  </si>
-  <si>
-    <t>Muhamad Yusuf Ahmad</t>
-  </si>
-  <si>
-    <t>Marsela Almung</t>
-  </si>
-  <si>
-    <t>Natalia Kasipka</t>
-  </si>
-  <si>
-    <t>Naura</t>
-  </si>
-  <si>
-    <t>Petrus Uropkulin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="136">
   <si>
     <t>kelas</t>
   </si>
@@ -159,36 +119,6 @@
     <t>Penilaian</t>
   </si>
   <si>
-    <t>Latihan 1</t>
-  </si>
-  <si>
-    <t>Latihan 2</t>
-  </si>
-  <si>
-    <t>Latihan 3</t>
-  </si>
-  <si>
-    <t>Latihan 4</t>
-  </si>
-  <si>
-    <t>Latihan 5</t>
-  </si>
-  <si>
-    <t>Tugas 1</t>
-  </si>
-  <si>
-    <t>Tugas 2</t>
-  </si>
-  <si>
-    <t>Tugas 3</t>
-  </si>
-  <si>
-    <t>Tugas 4</t>
-  </si>
-  <si>
-    <t>Tugas 5</t>
-  </si>
-  <si>
     <t>Ulangan Harian</t>
   </si>
   <si>
@@ -237,9 +167,6 @@
     <t>Guru</t>
   </si>
   <si>
-    <t>Isak S. Snanfi</t>
-  </si>
-  <si>
     <t>Chandra Kirana</t>
   </si>
   <si>
@@ -249,9 +176,6 @@
     <t>Erlina</t>
   </si>
   <si>
-    <t>Bernadus Beda Balepapan</t>
-  </si>
-  <si>
     <t>Rinto Sianturi</t>
   </si>
   <si>
@@ -267,72 +191,12 @@
     <t>Floriana Golu Aran</t>
   </si>
   <si>
-    <t xml:space="preserve">Heri </t>
-  </si>
-  <si>
     <t>Nasrawati</t>
   </si>
   <si>
     <t>Nama</t>
   </si>
   <si>
-    <t>Aprilia</t>
-  </si>
-  <si>
-    <t>Rahel Uropmabin</t>
-  </si>
-  <si>
-    <t>Robi Izak Jikwa</t>
-  </si>
-  <si>
-    <t>Selpina Kakyarmabin</t>
-  </si>
-  <si>
-    <t>Zaskia Nurfadila Aras</t>
-  </si>
-  <si>
-    <t>Denisa Uropkulin</t>
-  </si>
-  <si>
-    <t>Golda Sima Alimdam</t>
-  </si>
-  <si>
-    <t>Hendrik Andreas Almung</t>
-  </si>
-  <si>
-    <t>Jenepia Taplo</t>
-  </si>
-  <si>
-    <t>Johan Markus Kilanki</t>
-  </si>
-  <si>
-    <t>Lisa Uropkulin</t>
-  </si>
-  <si>
-    <t>Merlin Almung</t>
-  </si>
-  <si>
-    <t>Mila Dumkon Bamulki</t>
-  </si>
-  <si>
-    <t>Wilem Bidana</t>
-  </si>
-  <si>
-    <t>Yemis Bidana</t>
-  </si>
-  <si>
-    <t>Kadakon Ningmabin</t>
-  </si>
-  <si>
-    <t>Tinip Uopdana</t>
-  </si>
-  <si>
-    <t>Jesica Putri Maharani</t>
-  </si>
-  <si>
-    <t>Ekelunok Alwoka</t>
-  </si>
-  <si>
     <t>AGUS JOHANES BANAL</t>
   </si>
   <si>
@@ -547,6 +411,36 @@
   </si>
   <si>
     <t>Yulian Yulian</t>
+  </si>
+  <si>
+    <t>Tugas</t>
+  </si>
+  <si>
+    <t>Latihan</t>
+  </si>
+  <si>
+    <t>Pemetaan Awal</t>
+  </si>
+  <si>
+    <t>Praktek</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Portofolio</t>
+  </si>
+  <si>
+    <t>Presentasi</t>
+  </si>
+  <si>
+    <t>Heri Handoko</t>
+  </si>
+  <si>
+    <t>Selpianus Nabyal</t>
+  </si>
+  <si>
+    <t>tahun_pelajaran</t>
   </si>
 </sst>
 </file>
@@ -917,8 +811,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="F6:G19" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="F6:G19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="F6:G17" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="F6:G17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Penilaian" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Nomor"/>
@@ -939,10 +833,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="O1:P18" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="O1:P18" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:P18">
-    <sortCondition ref="O1:O18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="O1:P17" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="O1:P17" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:P17">
+    <sortCondition ref="O1:O17"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Guru"/>
@@ -1251,69 +1145,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N69" sqref="N69"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.875" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="24" width="9" customWidth="1"/>
-    <col min="25" max="28" width="9.125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="8.625" hidden="1" customWidth="1"/>
-    <col min="30" max="34" width="9.125" hidden="1" customWidth="1"/>
+    <col min="25" max="28" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="30" max="34" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1323,10 +1219,10 @@
         <v>2022</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1344,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="K2">
         <v>547</v>
@@ -1352,6 +1248,9 @@
       <c r="L2" s="1">
         <v>45</v>
       </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1361,10 +1260,10 @@
         <v>2022</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1382,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>548</v>
@@ -1390,6 +1289,9 @@
       <c r="L3" s="1">
         <v>56</v>
       </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1399,10 +1301,10 @@
         <v>2022</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1420,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="K4">
         <v>549</v>
@@ -1428,6 +1330,9 @@
       <c r="L4" s="1">
         <v>75</v>
       </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1437,10 +1342,10 @@
         <v>2022</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1458,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="K5">
         <v>550</v>
@@ -1466,6 +1371,9 @@
       <c r="L5" s="1">
         <v>34</v>
       </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1475,10 +1383,10 @@
         <v>2022</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1496,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="K6">
         <v>551</v>
@@ -1504,6 +1412,9 @@
       <c r="L6" s="1">
         <v>75</v>
       </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1513,10 +1424,10 @@
         <v>2022</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1534,7 +1445,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="K7">
         <v>552</v>
@@ -1542,6 +1453,9 @@
       <c r="L7" s="1">
         <v>55</v>
       </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1551,10 +1465,10 @@
         <v>2022</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1572,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K8">
         <v>553</v>
@@ -1580,6 +1494,9 @@
       <c r="L8" s="1">
         <v>45</v>
       </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1589,10 +1506,10 @@
         <v>2022</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1610,7 +1527,7 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="K9">
         <v>554</v>
@@ -1618,6 +1535,9 @@
       <c r="L9" s="1">
         <v>78</v>
       </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1627,10 +1547,10 @@
         <v>2022</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1648,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="K10">
         <v>555</v>
@@ -1656,6 +1576,9 @@
       <c r="L10" s="1">
         <v>54</v>
       </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1665,10 +1588,10 @@
         <v>2022</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1686,7 +1609,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="K11">
         <v>556</v>
@@ -1694,6 +1617,9 @@
       <c r="L11" s="1">
         <v>56</v>
       </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1703,10 +1629,10 @@
         <v>2022</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1724,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="K12">
         <v>557</v>
@@ -1732,6 +1658,9 @@
       <c r="L12" s="1">
         <v>37</v>
       </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1741,10 +1670,10 @@
         <v>2022</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1762,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="K13">
         <v>558</v>
@@ -1770,6 +1699,9 @@
       <c r="L13" s="1">
         <v>66</v>
       </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1779,10 +1711,10 @@
         <v>2022</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1800,7 +1732,7 @@
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="K14">
         <v>559</v>
@@ -1808,6 +1740,9 @@
       <c r="L14" s="1">
         <v>56</v>
       </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1817,10 +1752,10 @@
         <v>2022</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1838,7 +1773,7 @@
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="K15">
         <v>560</v>
@@ -1846,6 +1781,9 @@
       <c r="L15" s="1">
         <v>45</v>
       </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1855,10 +1793,10 @@
         <v>2022</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1876,7 +1814,7 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="K16">
         <v>561</v>
@@ -1884,8 +1822,11 @@
       <c r="L16" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -1893,10 +1834,10 @@
         <v>2022</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1914,7 +1855,7 @@
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="K17">
         <v>562</v>
@@ -1922,8 +1863,11 @@
       <c r="L17" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -1931,10 +1875,10 @@
         <v>2022</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1952,7 +1896,7 @@
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="K18">
         <v>563</v>
@@ -1960,8 +1904,11 @@
       <c r="L18" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2021</v>
       </c>
@@ -1969,10 +1916,10 @@
         <v>2022</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1990,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="K19">
         <v>564</v>
@@ -1998,8 +1945,11 @@
       <c r="L19" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -2007,10 +1957,10 @@
         <v>2022</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2028,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="K20">
         <v>565</v>
@@ -2036,8 +1986,11 @@
       <c r="L20" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -2045,10 +1998,10 @@
         <v>2022</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2066,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="K21">
         <v>566</v>
@@ -2074,8 +2027,11 @@
       <c r="L21" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2021</v>
       </c>
@@ -2083,10 +2039,10 @@
         <v>2022</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2104,7 +2060,7 @@
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="K22">
         <v>567</v>
@@ -2112,8 +2068,11 @@
       <c r="L22" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -2121,10 +2080,10 @@
         <v>2022</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2142,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="K23">
         <v>568</v>
@@ -2150,8 +2109,11 @@
       <c r="L23" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2021</v>
       </c>
@@ -2159,10 +2121,10 @@
         <v>2022</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2180,7 +2142,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="K24">
         <v>569</v>
@@ -2188,8 +2150,11 @@
       <c r="L24" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2021</v>
       </c>
@@ -2197,10 +2162,10 @@
         <v>2022</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2218,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="K25">
         <v>570</v>
@@ -2226,8 +2191,11 @@
       <c r="L25" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -2235,10 +2203,10 @@
         <v>2022</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2256,7 +2224,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="K26">
         <v>571</v>
@@ -2264,8 +2232,11 @@
       <c r="L26" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2021</v>
       </c>
@@ -2273,10 +2244,10 @@
         <v>2022</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2294,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="K27">
         <v>572</v>
@@ -2302,8 +2273,11 @@
       <c r="L27" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -2311,10 +2285,10 @@
         <v>2022</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2332,7 +2306,7 @@
         <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K28">
         <v>573</v>
@@ -2340,8 +2314,11 @@
       <c r="L28" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2021</v>
       </c>
@@ -2349,10 +2326,10 @@
         <v>2022</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2370,7 +2347,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="K29">
         <v>574</v>
@@ -2378,8 +2355,11 @@
       <c r="L29" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2021</v>
       </c>
@@ -2387,10 +2367,10 @@
         <v>2022</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2408,7 +2388,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="K30">
         <v>575</v>
@@ -2416,8 +2396,11 @@
       <c r="L30" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2021</v>
       </c>
@@ -2425,10 +2408,10 @@
         <v>2022</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2446,7 +2429,7 @@
         <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K31">
         <v>576</v>
@@ -2454,8 +2437,11 @@
       <c r="L31" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2021</v>
       </c>
@@ -2463,10 +2449,10 @@
         <v>2022</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2484,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K32">
         <v>577</v>
@@ -2492,8 +2478,11 @@
       <c r="L32" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2021</v>
       </c>
@@ -2501,10 +2490,10 @@
         <v>2022</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2522,7 +2511,7 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="K33">
         <v>578</v>
@@ -2530,8 +2519,11 @@
       <c r="L33" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2021</v>
       </c>
@@ -2539,10 +2531,10 @@
         <v>2022</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2560,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="K34">
         <v>579</v>
@@ -2568,8 +2560,11 @@
       <c r="L34" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -2577,10 +2572,10 @@
         <v>2022</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2598,7 +2593,7 @@
         <v>4</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="K35">
         <v>580</v>
@@ -2606,8 +2601,11 @@
       <c r="L35" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2021</v>
       </c>
@@ -2615,10 +2613,10 @@
         <v>2022</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2636,7 +2634,7 @@
         <v>4</v>
       </c>
       <c r="J36" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="K36">
         <v>581</v>
@@ -2644,8 +2642,11 @@
       <c r="L36" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2021</v>
       </c>
@@ -2653,10 +2654,10 @@
         <v>2022</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2674,7 +2675,7 @@
         <v>4</v>
       </c>
       <c r="J37" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="K37">
         <v>582</v>
@@ -2682,8 +2683,11 @@
       <c r="L37" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2021</v>
       </c>
@@ -2691,10 +2695,10 @@
         <v>2022</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2712,7 +2716,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="K38">
         <v>583</v>
@@ -2720,8 +2724,11 @@
       <c r="L38" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2021</v>
       </c>
@@ -2729,10 +2736,10 @@
         <v>2022</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2750,7 +2757,7 @@
         <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="K39">
         <v>584</v>
@@ -2758,8 +2765,11 @@
       <c r="L39" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2021</v>
       </c>
@@ -2767,10 +2777,10 @@
         <v>2022</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2788,7 +2798,7 @@
         <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="K40">
         <v>585</v>
@@ -2796,8 +2806,11 @@
       <c r="L40" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2021</v>
       </c>
@@ -2805,10 +2818,10 @@
         <v>2022</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2826,7 +2839,7 @@
         <v>4</v>
       </c>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="K41">
         <v>586</v>
@@ -2834,8 +2847,11 @@
       <c r="L41" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2021</v>
       </c>
@@ -2843,10 +2859,10 @@
         <v>2022</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2864,7 +2880,7 @@
         <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="K42">
         <v>587</v>
@@ -2872,8 +2888,11 @@
       <c r="L42" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2021</v>
       </c>
@@ -2881,10 +2900,10 @@
         <v>2022</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2902,7 +2921,7 @@
         <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="K43">
         <v>588</v>
@@ -2910,8 +2929,11 @@
       <c r="L43" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2021</v>
       </c>
@@ -2919,10 +2941,10 @@
         <v>2022</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2940,7 +2962,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="K44">
         <v>589</v>
@@ -2948,8 +2970,11 @@
       <c r="L44" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2021</v>
       </c>
@@ -2957,10 +2982,10 @@
         <v>2022</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2978,7 +3003,7 @@
         <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="K45">
         <v>590</v>
@@ -2986,8 +3011,11 @@
       <c r="L45" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -2995,10 +3023,10 @@
         <v>2022</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3016,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="J46" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="K46">
         <v>591</v>
@@ -3024,8 +3052,11 @@
       <c r="L46" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2021</v>
       </c>
@@ -3033,10 +3064,10 @@
         <v>2022</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3054,7 +3085,7 @@
         <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="K47">
         <v>592</v>
@@ -3062,8 +3093,11 @@
       <c r="L47" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2021</v>
       </c>
@@ -3071,10 +3105,10 @@
         <v>2022</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3092,7 +3126,7 @@
         <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="K48">
         <v>593</v>
@@ -3100,8 +3134,11 @@
       <c r="L48" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2021</v>
       </c>
@@ -3109,10 +3146,10 @@
         <v>2022</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3130,7 +3167,7 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="K49">
         <v>594</v>
@@ -3138,8 +3175,11 @@
       <c r="L49" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2021</v>
       </c>
@@ -3147,10 +3187,10 @@
         <v>2022</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3168,7 +3208,7 @@
         <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="K50">
         <v>595</v>
@@ -3176,8 +3216,11 @@
       <c r="L50" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -3185,10 +3228,10 @@
         <v>2022</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3206,7 +3249,7 @@
         <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="K51">
         <v>596</v>
@@ -3214,8 +3257,11 @@
       <c r="L51" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2021</v>
       </c>
@@ -3223,10 +3269,10 @@
         <v>2022</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3244,7 +3290,7 @@
         <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="K52">
         <v>597</v>
@@ -3252,8 +3298,11 @@
       <c r="L52" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2021</v>
       </c>
@@ -3261,10 +3310,10 @@
         <v>2022</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3282,7 +3331,7 @@
         <v>4</v>
       </c>
       <c r="J53" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="K53">
         <v>598</v>
@@ -3290,8 +3339,11 @@
       <c r="L53" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2021</v>
       </c>
@@ -3299,10 +3351,10 @@
         <v>2022</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3320,7 +3372,7 @@
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="K54">
         <v>599</v>
@@ -3328,8 +3380,11 @@
       <c r="L54" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2021</v>
       </c>
@@ -3337,10 +3392,10 @@
         <v>2022</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3358,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="J55" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="K55">
         <v>600</v>
@@ -3366,8 +3421,11 @@
       <c r="L55" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2021</v>
       </c>
@@ -3375,10 +3433,10 @@
         <v>2022</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3396,7 +3454,7 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="K56">
         <v>601</v>
@@ -3404,8 +3462,11 @@
       <c r="L56" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2021</v>
       </c>
@@ -3413,10 +3474,10 @@
         <v>2022</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3434,7 +3495,7 @@
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="K57">
         <v>602</v>
@@ -3442,8 +3503,11 @@
       <c r="L57" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2021</v>
       </c>
@@ -3451,10 +3515,10 @@
         <v>2022</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3472,7 +3536,7 @@
         <v>4</v>
       </c>
       <c r="J58" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="K58">
         <v>603</v>
@@ -3480,8 +3544,11 @@
       <c r="L58" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2021</v>
       </c>
@@ -3489,10 +3556,10 @@
         <v>2022</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3510,7 +3577,7 @@
         <v>4</v>
       </c>
       <c r="J59" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="K59">
         <v>604</v>
@@ -3518,8 +3585,11 @@
       <c r="L59" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2021</v>
       </c>
@@ -3527,10 +3597,10 @@
         <v>2022</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3548,7 +3618,7 @@
         <v>4</v>
       </c>
       <c r="J60" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="K60">
         <v>605</v>
@@ -3556,8 +3626,11 @@
       <c r="L60" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2021</v>
       </c>
@@ -3565,10 +3638,10 @@
         <v>2022</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3586,7 +3659,7 @@
         <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="K61">
         <v>606</v>
@@ -3594,8 +3667,11 @@
       <c r="L61" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2021</v>
       </c>
@@ -3603,10 +3679,10 @@
         <v>2022</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3624,7 +3700,7 @@
         <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="K62">
         <v>607</v>
@@ -3632,8 +3708,11 @@
       <c r="L62" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2021</v>
       </c>
@@ -3641,10 +3720,10 @@
         <v>2022</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3662,7 +3741,7 @@
         <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="K63">
         <v>608</v>
@@ -3670,8 +3749,11 @@
       <c r="L63" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2021</v>
       </c>
@@ -3679,10 +3761,10 @@
         <v>2022</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3700,7 +3782,7 @@
         <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="K64">
         <v>609</v>
@@ -3708,8 +3790,11 @@
       <c r="L64" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2021</v>
       </c>
@@ -3717,10 +3802,10 @@
         <v>2022</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3738,7 +3823,7 @@
         <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="K65">
         <v>610</v>
@@ -3746,8 +3831,11 @@
       <c r="L65" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2021</v>
       </c>
@@ -3755,10 +3843,10 @@
         <v>2022</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3776,7 +3864,7 @@
         <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="K66">
         <v>611</v>
@@ -3785,7 +3873,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2021</v>
       </c>
@@ -3793,10 +3881,10 @@
         <v>2022</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3814,7 +3902,7 @@
         <v>4</v>
       </c>
       <c r="J67" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="K67">
         <v>612</v>
@@ -3823,7 +3911,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2021</v>
       </c>
@@ -3831,10 +3919,10 @@
         <v>2022</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3852,7 +3940,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="K68">
         <v>613</v>
@@ -3861,7 +3949,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2021</v>
       </c>
@@ -3869,10 +3957,10 @@
         <v>2022</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3890,7 +3978,7 @@
         <v>4</v>
       </c>
       <c r="J69" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="K69">
         <v>614</v>
@@ -3899,7 +3987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2021</v>
       </c>
@@ -3907,10 +3995,10 @@
         <v>2022</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3928,7 +4016,7 @@
         <v>4</v>
       </c>
       <c r="J70" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="K70">
         <v>615</v>
@@ -3937,7 +4025,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2021</v>
       </c>
@@ -3945,10 +4033,10 @@
         <v>2022</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3966,7 +4054,7 @@
         <v>4</v>
       </c>
       <c r="J71" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="K71">
         <v>616</v>
@@ -3975,7 +4063,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2021</v>
       </c>
@@ -3983,10 +4071,10 @@
         <v>2022</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4004,7 +4092,7 @@
         <v>4</v>
       </c>
       <c r="J72" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="K72">
         <v>617</v>
@@ -4013,7 +4101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2021</v>
       </c>
@@ -4021,10 +4109,10 @@
         <v>2022</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4042,7 +4130,7 @@
         <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="K73">
         <v>618</v>
@@ -4063,86 +4151,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="2.875" customWidth="1"/>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
-    <col min="11" max="11" width="2.25" customWidth="1"/>
-    <col min="12" max="13" width="9.125" customWidth="1"/>
-    <col min="14" max="14" width="2.25" customWidth="1"/>
-    <col min="15" max="15" width="15.625" customWidth="1"/>
-    <col min="16" max="16" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="2.28515625" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="2.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>547</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -4150,31 +4238,31 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>548</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -4182,25 +4270,25 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>549</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -4208,25 +4296,25 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>550</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="M5">
         <v>4</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="P5">
         <v>4</v>
@@ -4234,31 +4322,31 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>551</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="P6">
         <v>5</v>
@@ -4266,31 +4354,31 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>552</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M7">
         <v>6</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="P7">
         <v>6</v>
@@ -4298,25 +4386,25 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>553</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>77</v>
+      <c r="O8" t="s">
+        <v>39</v>
       </c>
       <c r="P8">
         <v>7</v>
@@ -4324,25 +4412,25 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>554</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J9">
         <v>8</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>67</v>
+      <c r="O9" t="s">
+        <v>40</v>
       </c>
       <c r="P9">
         <v>8</v>
@@ -4350,25 +4438,25 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>555</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J10">
         <v>9</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="P10">
         <v>9</v>
@@ -4376,25 +4464,25 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>556</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
-      <c r="O11" t="s">
-        <v>63</v>
+      <c r="O11" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="P11">
         <v>10</v>
@@ -4402,19 +4490,19 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>557</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="G12">
         <v>6</v>
       </c>
-      <c r="O12" t="s">
-        <v>64</v>
+      <c r="O12" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="P12">
         <v>11</v>
@@ -4422,19 +4510,19 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>558</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="G13">
         <v>7</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="P13">
         <v>12</v>
@@ -4442,19 +4530,19 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>559</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="P14">
         <v>13</v>
@@ -4462,19 +4550,19 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B15">
-        <v>64</v>
+        <v>560</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="P15">
         <v>14</v>
@@ -4482,19 +4570,19 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B16">
-        <v>65</v>
+        <v>561</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>69</v>
+        <v>20</v>
+      </c>
+      <c r="O16" t="s">
+        <v>42</v>
       </c>
       <c r="P16">
         <v>15</v>
@@ -4502,19 +4590,19 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B17">
-        <v>66</v>
+        <v>562</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="G17">
-        <v>11</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
+        <v>134</v>
       </c>
       <c r="P17">
         <v>16</v>
@@ -4522,148 +4610,450 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>67</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18">
-        <v>12</v>
-      </c>
-      <c r="O18" t="s">
-        <v>65</v>
-      </c>
-      <c r="P18">
-        <v>17</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B19">
-        <v>68</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19">
-        <v>13</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B20">
-        <v>69</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B21">
-        <v>70</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B22">
-        <v>71</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B23">
-        <v>72</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B24">
-        <v>73</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B25">
-        <v>74</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27">
-        <v>76</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28">
-        <v>77</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29">
-        <v>78</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B30">
-        <v>79</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B32">
-        <v>81</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B33">
-        <v>82</v>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -4676,16 +5066,4 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>